--- a/OrangeHRM_test_cases.xlsx
+++ b/OrangeHRM_test_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kien/Documents/GitHub/playwright-demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E31126D-5487-A944-A953-4D5999A1D17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39EF7CD-C69F-A04D-B0D5-DABAF40ABF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="760" windowWidth="29360" windowHeight="18880" activeTab="1" xr2:uid="{47DE5386-0A85-024E-AED1-632F21879BBE}"/>
+    <workbookView xWindow="-19100" yWindow="-33340" windowWidth="60160" windowHeight="33340" xr2:uid="{47DE5386-0A85-024E-AED1-632F21879BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -259,11 +259,6 @@
     <t>“Required” message under both fields</t>
   </si>
   <si>
-    <t>1. Navigate to the login page.
-2. Leave username empty, enter password.
-3. Click the "Login" button.</t>
-  </si>
-  <si>
     <t>“Required” message under username</t>
   </si>
   <si>
@@ -778,6 +773,11 @@
   </si>
   <si>
     <t>No freezing, smooth filtering</t>
+  </si>
+  <si>
+    <t>1. Navigate to the login page.
+2. Enter pasword only, leave username empty.
+3. Click the "Login" button.</t>
   </si>
 </sst>
 </file>
@@ -1599,8 +1599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F14D43D9-2032-0A43-893C-9158CD26425C}">
   <dimension ref="B3:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1608,7 +1608,7 @@
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="27.1640625" customWidth="1"/>
     <col min="4" max="4" width="43.1640625" customWidth="1"/>
-    <col min="5" max="5" width="36.6640625" customWidth="1"/>
+    <col min="5" max="5" width="35.83203125" customWidth="1"/>
     <col min="6" max="6" width="48.1640625" customWidth="1"/>
     <col min="7" max="7" width="43.5" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
@@ -1668,13 +1668,13 @@
         <v>67</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>66</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>70</v>
@@ -1688,19 +1688,19 @@
         <v>41</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>66</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>69</v>
+        <v>224</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>4</v>
@@ -1711,19 +1711,19 @@
         <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>66</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>4</v>
@@ -1734,10 +1734,10 @@
         <v>43</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>9</v>
@@ -1780,16 +1780,16 @@
         <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>66</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>12</v>
@@ -1803,16 +1803,16 @@
         <v>46</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>12</v>
@@ -1826,16 +1826,16 @@
         <v>47</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>12</v>
@@ -1849,16 +1849,16 @@
         <v>48</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>66</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>12</v>
@@ -1872,19 +1872,19 @@
         <v>49</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>66</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>11</v>
@@ -1904,7 +1904,7 @@
         <v>15</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>12</v>
@@ -1927,7 +1927,7 @@
         <v>18</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>12</v>
@@ -1941,19 +1941,19 @@
         <v>52</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>66</v>
       </c>
       <c r="F17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>11</v>
@@ -1964,19 +1964,19 @@
         <v>53</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>11</v>
@@ -1987,19 +1987,19 @@
         <v>54</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>66</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>19</v>
@@ -2010,19 +2010,19 @@
         <v>55</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>66</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>19</v>
@@ -2033,19 +2033,19 @@
         <v>56</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>66</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>19</v>
@@ -2056,19 +2056,19 @@
         <v>57</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>66</v>
       </c>
       <c r="F22" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>19</v>
@@ -2076,22 +2076,22 @@
     </row>
     <row r="23" spans="2:8" ht="85" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>66</v>
       </c>
       <c r="F23" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>19</v>
@@ -2099,22 +2099,22 @@
     </row>
     <row r="24" spans="2:8" ht="85" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>66</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>19</v>
@@ -2122,22 +2122,22 @@
     </row>
     <row r="25" spans="2:8" ht="119" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>19</v>
@@ -2145,7 +2145,7 @@
     </row>
     <row r="26" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>20</v>
@@ -2157,7 +2157,7 @@
         <v>22</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>23</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="27" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>25</v>
@@ -2180,7 +2180,7 @@
         <v>27</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>28</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="28" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>29</v>
@@ -2203,7 +2203,7 @@
         <v>31</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>32</v>
@@ -2214,19 +2214,19 @@
     </row>
     <row r="29" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>35</v>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="30" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>36</v>
@@ -2246,10 +2246,10 @@
         <v>37</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>38</v>
@@ -2292,7 +2292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20692251-A75C-834F-A180-1C00776AA274}">
   <dimension ref="C3:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="B2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -2332,22 +2332,22 @@
     </row>
     <row r="4" spans="3:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>153</v>
-      </c>
       <c r="G4" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>4</v>
@@ -2355,22 +2355,22 @@
     </row>
     <row r="5" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C5" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>156</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>4</v>
@@ -2378,22 +2378,22 @@
     </row>
     <row r="6" spans="3:9" ht="51" x14ac:dyDescent="0.2">
       <c r="C6" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>163</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>4</v>
@@ -2401,22 +2401,22 @@
     </row>
     <row r="7" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C7" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>4</v>
@@ -2424,22 +2424,22 @@
     </row>
     <row r="8" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C8" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>169</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>170</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>4</v>
@@ -2447,22 +2447,22 @@
     </row>
     <row r="9" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C9" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>4</v>
@@ -2470,22 +2470,22 @@
     </row>
     <row r="10" spans="3:9" ht="51" x14ac:dyDescent="0.2">
       <c r="C10" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>191</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>192</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>11</v>
@@ -2493,22 +2493,22 @@
     </row>
     <row r="11" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C11" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>194</v>
-      </c>
       <c r="F11" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>11</v>
@@ -2516,22 +2516,22 @@
     </row>
     <row r="12" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C12" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>11</v>
@@ -2539,22 +2539,22 @@
     </row>
     <row r="13" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C13" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>201</v>
-      </c>
       <c r="F13" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G13" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>204</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>11</v>
@@ -2562,22 +2562,22 @@
     </row>
     <row r="14" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C14" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>211</v>
-      </c>
       <c r="H14" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>11</v>
@@ -2585,22 +2585,22 @@
     </row>
     <row r="15" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C15" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>208</v>
-      </c>
       <c r="H15" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>19</v>
@@ -2608,22 +2608,22 @@
     </row>
     <row r="16" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C16" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>19</v>
@@ -2631,22 +2631,22 @@
     </row>
     <row r="17" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="H17" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>220</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>24</v>
@@ -2654,22 +2654,22 @@
     </row>
     <row r="18" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C18" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>33</v>

--- a/OrangeHRM_test_cases.xlsx
+++ b/OrangeHRM_test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kien/Documents/GitHub/playwright-demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39EF7CD-C69F-A04D-B0D5-DABAF40ABF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0529BE2-82BC-854E-8295-28F25950560E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19100" yWindow="-33340" windowWidth="60160" windowHeight="33340" xr2:uid="{47DE5386-0A85-024E-AED1-632F21879BBE}"/>
   </bookViews>
@@ -466,318 +466,318 @@
     <t>Using browser back button after logout</t>
   </si>
   <si>
+    <t>Should redirect to login page again</t>
+  </si>
+  <si>
+    <t>Test browser back button after logout</t>
+  </si>
+  <si>
+    <t>User has a valid credential</t>
+  </si>
+  <si>
+    <t>1. Navigate to the login page
+2. Check if the page is displayed in the preferred language</t>
+  </si>
+  <si>
+    <t>1. Navigate to the login page
+2. Use a screen reader to check if form fields, buttons, and error messages are properly announced</t>
+  </si>
+  <si>
+    <t>Test if the login page loads within acceptable time limits</t>
+  </si>
+  <si>
+    <t>Measure the page load time when accessing the login page</t>
+  </si>
+  <si>
+    <t>Multiple users are attempting to login at the same time</t>
+  </si>
+  <si>
+    <t>Simulate multiple users trying to login</t>
+  </si>
+  <si>
+    <t>Session timeout handling</t>
+  </si>
+  <si>
+    <t>Test login session timeout</t>
+  </si>
+  <si>
+    <t>User already login</t>
+  </si>
+  <si>
+    <t>Log in → wait until session expires → perform action</t>
+  </si>
+  <si>
+    <t>Redirected to login</t>
+  </si>
+  <si>
+    <t>Login_21</t>
+  </si>
+  <si>
+    <t>Login_22</t>
+  </si>
+  <si>
+    <t>Login_23</t>
+  </si>
+  <si>
+    <t>Login_24</t>
+  </si>
+  <si>
+    <t>Login_25</t>
+  </si>
+  <si>
+    <t>Login_26</t>
+  </si>
+  <si>
+    <t>Login_27</t>
+  </si>
+  <si>
+    <t>Search_01</t>
+  </si>
+  <si>
+    <t>Exact Menu Search</t>
+  </si>
+  <si>
+    <t>Search for an exact menu item (e.g., "Admin")</t>
+  </si>
+  <si>
+    <t>User is logged in and on Dashboard page</t>
+  </si>
+  <si>
+    <t>Partial Menu Search</t>
+  </si>
+  <si>
+    <t>Search for a menu item using partial name (e.g., "Lea")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Only items like "Leave" should be visible</t>
+  </si>
+  <si>
+    <t>Only the "Admin" menu item should be displayed</t>
+  </si>
+  <si>
+    <t>1. Locate the left-side menu search bar
+2. Type "Admin" in the search field</t>
+  </si>
+  <si>
+    <t>1. Locate the left-side menu search bar
+2. Type "Lea" in the search field</t>
+  </si>
+  <si>
+    <t>Case Insensitive Search</t>
+  </si>
+  <si>
+    <t>Ensure search is not case sensitive</t>
+  </si>
+  <si>
+    <t>1. Locate the left-side menu search bar
+2. Enter "pim", "PIM", "PiM" one by one  in the search field</t>
+  </si>
+  <si>
+    <t>The "PIM" menu item should appear for all inputs</t>
+  </si>
+  <si>
+    <t>Clear Search Field</t>
+  </si>
+  <si>
+    <t>Verify that clearing input resets the menu</t>
+  </si>
+  <si>
+    <t>Search was previously performed</t>
+  </si>
+  <si>
+    <t>1. Type any term
+2. Clear the input</t>
+  </si>
+  <si>
+    <t>Full menu list should be shown again</t>
+  </si>
+  <si>
+    <t>Navigate using filtered results</t>
+  </si>
+  <si>
+    <t>User is taken to Admin page</t>
+  </si>
+  <si>
+    <t>Verify that user can navigate using filtered results</t>
+  </si>
+  <si>
+    <t>Empty Search Field</t>
+  </si>
+  <si>
+    <t>Ensure search bar handles empty input</t>
+  </si>
+  <si>
+    <t>1. Leave search bar empty</t>
+  </si>
+  <si>
+    <t>All menu items should be displayed</t>
+  </si>
+  <si>
+    <t>Search_02</t>
+  </si>
+  <si>
+    <t>Search_03</t>
+  </si>
+  <si>
+    <t>Search_04</t>
+  </si>
+  <si>
+    <t>Search_05</t>
+  </si>
+  <si>
+    <t>Search_06</t>
+  </si>
+  <si>
+    <t>Search_07</t>
+  </si>
+  <si>
+    <t>Search_08</t>
+  </si>
+  <si>
+    <t>Search_09</t>
+  </si>
+  <si>
+    <t>Search_10</t>
+  </si>
+  <si>
+    <t>Search_11</t>
+  </si>
+  <si>
+    <t>Search_12</t>
+  </si>
+  <si>
+    <t>Search_13</t>
+  </si>
+  <si>
+    <t>Search_14</t>
+  </si>
+  <si>
+    <t>Search_16</t>
+  </si>
+  <si>
+    <t>Special Characters</t>
+  </si>
+  <si>
+    <t>Input special characters</t>
+  </si>
+  <si>
+    <t>No crash; “no result” shown</t>
+  </si>
+  <si>
+    <t>Leading/Trailing Spaces</t>
+  </si>
+  <si>
+    <t>Test search with spaces around valid terms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Locate the left-side menu search bar
+2. Enter special chars into search like @#$%
+</t>
+  </si>
+  <si>
+    <t>1. Locate the left-side menu search bar
+2. Type " Admin " in the search field</t>
+  </si>
+  <si>
+    <t>Enter very long string in search</t>
+  </si>
+  <si>
+    <t>1. Enter incorrect credentials five times in a row
+2. Click the "Login" button each time</t>
+  </si>
+  <si>
+    <t>Long Input Handling</t>
+  </si>
+  <si>
+    <t>Rapid Typing</t>
+  </si>
+  <si>
+    <t>Test input performance under fast typing</t>
+  </si>
+  <si>
+    <t>1. Paste 200+ character input in the search field</t>
+  </si>
+  <si>
+    <t>1. Type and delete input rapidly in the search filed</t>
+  </si>
+  <si>
+    <t>UI handles without lag or crash</t>
+  </si>
+  <si>
+    <t>No crash, blank result area shown</t>
+  </si>
+  <si>
+    <t>Invalid Search Input</t>
+  </si>
+  <si>
+    <t>Enter non-matching text</t>
+  </si>
+  <si>
+    <t>1. Locate the left-side menu search bar
+2. Type "wronginput" in the search field</t>
+  </si>
+  <si>
+    <t>Use of non-alphabetic input (e.g., numbers)</t>
+  </si>
+  <si>
+    <t>Non-alphabetic input</t>
+  </si>
+  <si>
+    <t>1. Locate the left-side menu search bar
+2. Type "123" in the search field</t>
+  </si>
+  <si>
+    <t>Try to access item from empty search</t>
+  </si>
+  <si>
+    <t>Type random string → click empty area</t>
+  </si>
+  <si>
+    <t>Access item from empty search</t>
+  </si>
+  <si>
+    <t>No navigation should happen</t>
+  </si>
+  <si>
+    <t>Responsive behavior</t>
+  </si>
+  <si>
+    <t>Open on mobile/tablet viewport → test search</t>
+  </si>
+  <si>
+    <t>User is logged in and on Dashboard page on mobile device</t>
+  </si>
+  <si>
+    <t>Ensure responsiveness of search feature</t>
+  </si>
+  <si>
+    <t>Should be usable &amp; functional on smaller screens</t>
+  </si>
+  <si>
+    <t>Verify performance under rapid input</t>
+  </si>
+  <si>
+    <t>Performance of input</t>
+  </si>
+  <si>
+    <t>Type random strings quickly for 30s</t>
+  </si>
+  <si>
+    <t>No freezing, smooth filtering</t>
+  </si>
+  <si>
+    <t>1. Navigate to the login page.
+2. Enter pasword only, leave username empty.
+3. Click the "Login" button.</t>
+  </si>
+  <si>
     <t>1. Navigate to the login page.
 2. Enter a valid username (Admin)
 3. Enter the correct password (admin123)
 4. Click the "Login" button.
-5. Select User Profile on upper left corner.
+5. Select User Profile on upper right corner.
 6. Click the "Logout" button.
 7. Click browser back button.</t>
-  </si>
-  <si>
-    <t>Should redirect to login page again</t>
-  </si>
-  <si>
-    <t>Test browser back button after logout</t>
-  </si>
-  <si>
-    <t>User has a valid credential</t>
-  </si>
-  <si>
-    <t>1. Navigate to the login page
-2. Check if the page is displayed in the preferred language</t>
-  </si>
-  <si>
-    <t>1. Navigate to the login page
-2. Use a screen reader to check if form fields, buttons, and error messages are properly announced</t>
-  </si>
-  <si>
-    <t>Test if the login page loads within acceptable time limits</t>
-  </si>
-  <si>
-    <t>Measure the page load time when accessing the login page</t>
-  </si>
-  <si>
-    <t>Multiple users are attempting to login at the same time</t>
-  </si>
-  <si>
-    <t>Simulate multiple users trying to login</t>
-  </si>
-  <si>
-    <t>Session timeout handling</t>
-  </si>
-  <si>
-    <t>Test login session timeout</t>
-  </si>
-  <si>
-    <t>User already login</t>
-  </si>
-  <si>
-    <t>Log in → wait until session expires → perform action</t>
-  </si>
-  <si>
-    <t>Redirected to login</t>
-  </si>
-  <si>
-    <t>Login_21</t>
-  </si>
-  <si>
-    <t>Login_22</t>
-  </si>
-  <si>
-    <t>Login_23</t>
-  </si>
-  <si>
-    <t>Login_24</t>
-  </si>
-  <si>
-    <t>Login_25</t>
-  </si>
-  <si>
-    <t>Login_26</t>
-  </si>
-  <si>
-    <t>Login_27</t>
-  </si>
-  <si>
-    <t>Search_01</t>
-  </si>
-  <si>
-    <t>Exact Menu Search</t>
-  </si>
-  <si>
-    <t>Search for an exact menu item (e.g., "Admin")</t>
-  </si>
-  <si>
-    <t>User is logged in and on Dashboard page</t>
-  </si>
-  <si>
-    <t>Partial Menu Search</t>
-  </si>
-  <si>
-    <t>Search for a menu item using partial name (e.g., "Lea")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Only items like "Leave" should be visible</t>
-  </si>
-  <si>
-    <t>Only the "Admin" menu item should be displayed</t>
-  </si>
-  <si>
-    <t>1. Locate the left-side menu search bar
-2. Type "Admin" in the search field</t>
-  </si>
-  <si>
-    <t>1. Locate the left-side menu search bar
-2. Type "Lea" in the search field</t>
-  </si>
-  <si>
-    <t>Case Insensitive Search</t>
-  </si>
-  <si>
-    <t>Ensure search is not case sensitive</t>
-  </si>
-  <si>
-    <t>1. Locate the left-side menu search bar
-2. Enter "pim", "PIM", "PiM" one by one  in the search field</t>
-  </si>
-  <si>
-    <t>The "PIM" menu item should appear for all inputs</t>
-  </si>
-  <si>
-    <t>Clear Search Field</t>
-  </si>
-  <si>
-    <t>Verify that clearing input resets the menu</t>
-  </si>
-  <si>
-    <t>Search was previously performed</t>
-  </si>
-  <si>
-    <t>1. Type any term
-2. Clear the input</t>
-  </si>
-  <si>
-    <t>Full menu list should be shown again</t>
-  </si>
-  <si>
-    <t>Navigate using filtered results</t>
-  </si>
-  <si>
-    <t>User is taken to Admin page</t>
-  </si>
-  <si>
-    <t>Verify that user can navigate using filtered results</t>
-  </si>
-  <si>
-    <t>Empty Search Field</t>
-  </si>
-  <si>
-    <t>Ensure search bar handles empty input</t>
-  </si>
-  <si>
-    <t>1. Leave search bar empty</t>
-  </si>
-  <si>
-    <t>All menu items should be displayed</t>
-  </si>
-  <si>
-    <t>Search_02</t>
-  </si>
-  <si>
-    <t>Search_03</t>
-  </si>
-  <si>
-    <t>Search_04</t>
-  </si>
-  <si>
-    <t>Search_05</t>
-  </si>
-  <si>
-    <t>Search_06</t>
-  </si>
-  <si>
-    <t>Search_07</t>
-  </si>
-  <si>
-    <t>Search_08</t>
-  </si>
-  <si>
-    <t>Search_09</t>
-  </si>
-  <si>
-    <t>Search_10</t>
-  </si>
-  <si>
-    <t>Search_11</t>
-  </si>
-  <si>
-    <t>Search_12</t>
-  </si>
-  <si>
-    <t>Search_13</t>
-  </si>
-  <si>
-    <t>Search_14</t>
-  </si>
-  <si>
-    <t>Search_16</t>
-  </si>
-  <si>
-    <t>Special Characters</t>
-  </si>
-  <si>
-    <t>Input special characters</t>
-  </si>
-  <si>
-    <t>No crash; “no result” shown</t>
-  </si>
-  <si>
-    <t>Leading/Trailing Spaces</t>
-  </si>
-  <si>
-    <t>Test search with spaces around valid terms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Locate the left-side menu search bar
-2. Enter special chars into search like @#$%
-</t>
-  </si>
-  <si>
-    <t>1. Locate the left-side menu search bar
-2. Type " Admin " in the search field</t>
-  </si>
-  <si>
-    <t>Enter very long string in search</t>
-  </si>
-  <si>
-    <t>1. Enter incorrect credentials five times in a row
-2. Click the "Login" button each time</t>
-  </si>
-  <si>
-    <t>Long Input Handling</t>
-  </si>
-  <si>
-    <t>Rapid Typing</t>
-  </si>
-  <si>
-    <t>Test input performance under fast typing</t>
-  </si>
-  <si>
-    <t>1. Paste 200+ character input in the search field</t>
-  </si>
-  <si>
-    <t>1. Type and delete input rapidly in the search filed</t>
-  </si>
-  <si>
-    <t>UI handles without lag or crash</t>
-  </si>
-  <si>
-    <t>No crash, blank result area shown</t>
-  </si>
-  <si>
-    <t>Invalid Search Input</t>
-  </si>
-  <si>
-    <t>Enter non-matching text</t>
-  </si>
-  <si>
-    <t>1. Locate the left-side menu search bar
-2. Type "wronginput" in the search field</t>
-  </si>
-  <si>
-    <t>Use of non-alphabetic input (e.g., numbers)</t>
-  </si>
-  <si>
-    <t>Non-alphabetic input</t>
-  </si>
-  <si>
-    <t>1. Locate the left-side menu search bar
-2. Type "123" in the search field</t>
-  </si>
-  <si>
-    <t>Try to access item from empty search</t>
-  </si>
-  <si>
-    <t>Type random string → click empty area</t>
-  </si>
-  <si>
-    <t>Access item from empty search</t>
-  </si>
-  <si>
-    <t>No navigation should happen</t>
-  </si>
-  <si>
-    <t>Responsive behavior</t>
-  </si>
-  <si>
-    <t>Open on mobile/tablet viewport → test search</t>
-  </si>
-  <si>
-    <t>User is logged in and on Dashboard page on mobile device</t>
-  </si>
-  <si>
-    <t>Ensure responsiveness of search feature</t>
-  </si>
-  <si>
-    <t>Should be usable &amp; functional on smaller screens</t>
-  </si>
-  <si>
-    <t>Verify performance under rapid input</t>
-  </si>
-  <si>
-    <t>Performance of input</t>
-  </si>
-  <si>
-    <t>Type random strings quickly for 30s</t>
-  </si>
-  <si>
-    <t>No freezing, smooth filtering</t>
-  </si>
-  <si>
-    <t>1. Navigate to the login page.
-2. Enter pasword only, leave username empty.
-3. Click the "Login" button.</t>
   </si>
 </sst>
 </file>
@@ -1599,8 +1599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F14D43D9-2032-0A43-893C-9158CD26425C}">
   <dimension ref="B3:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1697,7 +1697,7 @@
         <v>66</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>71</v>
@@ -1964,19 +1964,19 @@
         <v>53</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>11</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="24" spans="2:8" ht="85" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>122</v>
@@ -2122,22 +2122,22 @@
     </row>
     <row r="25" spans="2:8" ht="119" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="F25" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>19</v>
@@ -2145,7 +2145,7 @@
     </row>
     <row r="26" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>20</v>
@@ -2157,7 +2157,7 @@
         <v>22</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>23</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="27" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>25</v>
@@ -2180,7 +2180,7 @@
         <v>27</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>28</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="28" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>29</v>
@@ -2203,7 +2203,7 @@
         <v>31</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>32</v>
@@ -2214,19 +2214,19 @@
     </row>
     <row r="29" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>35</v>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="30" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>36</v>
@@ -2246,10 +2246,10 @@
         <v>37</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>38</v>
@@ -2332,22 +2332,22 @@
     </row>
     <row r="4" spans="3:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>152</v>
-      </c>
       <c r="G4" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>4</v>
@@ -2355,22 +2355,22 @@
     </row>
     <row r="5" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C5" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>155</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>4</v>
@@ -2378,22 +2378,22 @@
     </row>
     <row r="6" spans="3:9" ht="51" x14ac:dyDescent="0.2">
       <c r="C6" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>4</v>
@@ -2401,22 +2401,22 @@
     </row>
     <row r="7" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C7" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>4</v>
@@ -2424,22 +2424,22 @@
     </row>
     <row r="8" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C8" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>168</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>169</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>4</v>
@@ -2447,22 +2447,22 @@
     </row>
     <row r="9" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C9" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>174</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>4</v>
@@ -2470,22 +2470,22 @@
     </row>
     <row r="10" spans="3:9" ht="51" x14ac:dyDescent="0.2">
       <c r="C10" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>190</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>191</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>11</v>
@@ -2493,22 +2493,22 @@
     </row>
     <row r="11" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C11" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="F11" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>11</v>
@@ -2516,22 +2516,22 @@
     </row>
     <row r="12" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C12" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>11</v>
@@ -2539,22 +2539,22 @@
     </row>
     <row r="13" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C13" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>200</v>
-      </c>
       <c r="F13" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G13" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>203</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>11</v>
@@ -2562,22 +2562,22 @@
     </row>
     <row r="14" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C14" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="H14" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>11</v>
@@ -2585,22 +2585,22 @@
     </row>
     <row r="15" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C15" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>207</v>
-      </c>
       <c r="H15" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>19</v>
@@ -2608,22 +2608,22 @@
     </row>
     <row r="16" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C16" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>214</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>19</v>
@@ -2631,22 +2631,22 @@
     </row>
     <row r="17" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="H17" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>219</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>24</v>
@@ -2654,22 +2654,22 @@
     </row>
     <row r="18" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C18" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>223</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>33</v>
